--- a/documents/forschungspraxis/charts.xlsx
+++ b/documents/forschungspraxis/charts.xlsx
@@ -4,17 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Konvergenz" sheetId="1" r:id="rId1"/>
+    <sheet name="Genauigkeit" sheetId="2" r:id="rId2"/>
+    <sheet name="Genauigkeit normiert" sheetId="5" r:id="rId3"/>
+    <sheet name="Berechnungsdauer" sheetId="3" r:id="rId4"/>
+    <sheet name="Berechnungsdauer normiert" sheetId="6" r:id="rId5"/>
+    <sheet name="Berechnungsdauer - Sigma" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="31">
   <si>
     <t>Berechnungsverfahren</t>
   </si>
@@ -87,6 +92,27 @@
   <si>
     <t>Prozent</t>
   </si>
+  <si>
+    <t>5 Knoten mit Masse</t>
+  </si>
+  <si>
+    <t>2 Knoten</t>
+  </si>
+  <si>
+    <t>2 Knoten mit PV</t>
+  </si>
+  <si>
+    <t>3 Knoten mit 2 PV</t>
+  </si>
+  <si>
+    <t>3 Knoten mit PV und PQ</t>
+  </si>
+  <si>
+    <t>3 Knoten mit unsymmetrischer Admittanzmatrix und PQ</t>
+  </si>
+  <si>
+    <t>3 Knoten mit unsymmetrischer Admittanzmatrix und PV</t>
+  </si>
 </sst>
 </file>
 
@@ -121,10 +147,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -478,6 +511,4772 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-AT"/>
+              <a:t>Relativer</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-AT" baseline="0"/>
+              <a:t> maximaler Fehler der Knotenspannungen</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-AT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Genauigkeit!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Knotenpunktpotentialverfahren</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Genauigkeit!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2 Knoten</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 Knoten mit Masse</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2 Knoten mit PV</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3 Knoten mit 2 PV</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3 Knoten mit PV und PQ</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3 Knoten mit unsymmetrischer Admittanzmatrix und PQ</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3 Knoten mit unsymmetrischer Admittanzmatrix und PV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Genauigkeit!$B$2:$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.4000000000004001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.4171263706343605E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0003737515906102E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.100102828225793</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.100102828225793</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.4909306180735499E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.100153258235891</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Genauigkeit!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stromiteration</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Genauigkeit!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2 Knoten</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 Knoten mit Masse</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2 Knoten mit PV</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3 Knoten mit 2 PV</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3 Knoten mit PV und PQ</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3 Knoten mit unsymmetrischer Admittanzmatrix und PQ</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3 Knoten mit unsymmetrischer Admittanzmatrix und PV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Genauigkeit!$B$3:$H$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4.7977656403297398E-8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.2733963061535598E-7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.31638873923027E-8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.6103356814344799E-7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3175964622369601E-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.9542532683495097E-8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.08903977822049E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Genauigkeit!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Newton-Raphson</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Genauigkeit!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2 Knoten</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 Knoten mit Masse</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2 Knoten mit PV</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3 Knoten mit 2 PV</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3 Knoten mit PV und PQ</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3 Knoten mit unsymmetrischer Admittanzmatrix und PQ</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3 Knoten mit unsymmetrischer Admittanzmatrix und PV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Genauigkeit!$B$4:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.80566783747338E-10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.4760854204319499E-7</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>1.7894162782734801E-3</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>1.5080729711766201E-2</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>1.55868892612355E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.43702114973228E-6</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>1.4595368354669199E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Genauigkeit!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fast-Decoupled-Loadflow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Genauigkeit!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2 Knoten</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 Knoten mit Masse</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2 Knoten mit PV</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3 Knoten mit 2 PV</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3 Knoten mit PV und PQ</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3 Knoten mit unsymmetrischer Admittanzmatrix und PQ</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3 Knoten mit unsymmetrischer Admittanzmatrix und PV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Genauigkeit!$B$5:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0" formatCode="0.00E+00">
+                  <c:v>3.3623150761927601E-10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.828892337692402</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00E+00">
+                  <c:v>4.5071537040223399E-9</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00E+00">
+                  <c:v>3.5544479789666701E-16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.96377742932450094</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.05019438063582</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00E+00">
+                  <c:v>8.9365560067241396E-9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Genauigkeit!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HELM, doppelte Genauigkeit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Genauigkeit!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2 Knoten</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 Knoten mit Masse</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2 Knoten mit PV</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3 Knoten mit 2 PV</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3 Knoten mit PV und PQ</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3 Knoten mit unsymmetrischer Admittanzmatrix und PQ</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3 Knoten mit unsymmetrischer Admittanzmatrix und PV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Genauigkeit!$B$6:$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4.7977655959208201E-8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6144922873032899E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5311200710519303E-8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9091482361342202E-5</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>3.1391361522774802E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.73648733806204E-7</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>1.3432408280888999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Genauigkeit!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HELM, höhere Genaugikeit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Genauigkeit!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2 Knoten</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 Knoten mit Masse</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2 Knoten mit PV</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3 Knoten mit 2 PV</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3 Knoten mit PV und PQ</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3 Knoten mit unsymmetrischer Admittanzmatrix und PQ</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3 Knoten mit unsymmetrischer Admittanzmatrix und PV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Genauigkeit!$B$7:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4.7977655848185898E-8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.26789087932513E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.53112007694705E-8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.14348223833662E-7</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>1.1487520422219901E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.7364873410729605E-7</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>3.87129873464397E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Genauigkeit!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HELM mit Newton-Raphson</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Genauigkeit!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2 Knoten</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 Knoten mit Masse</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2 Knoten mit PV</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3 Knoten mit 2 PV</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3 Knoten mit PV und PQ</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3 Knoten mit unsymmetrischer Admittanzmatrix und PQ</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3 Knoten mit unsymmetrischer Admittanzmatrix und PV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Genauigkeit!$B$8:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.66453751785394E-15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.76397753533781E-12</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>1.78941627827349E-3</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>1.50807297117661E-2</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>1.55868892612352E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.10713501939766E-12</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>1.3835859711010499E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Genauigkeit!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HELM mit Stromiteration</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Genauigkeit!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2 Knoten</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 Knoten mit Masse</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2 Knoten mit PV</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3 Knoten mit 2 PV</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3 Knoten mit PV und PQ</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3 Knoten mit unsymmetrischer Admittanzmatrix und PQ</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3 Knoten mit unsymmetrischer Admittanzmatrix und PV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Genauigkeit!$B$9:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.9433267947253801E-9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.86854488438495E-7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0819460491480304E-8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.26218937415778E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1548337407323499E-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7342459422404499E-7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0088777876222399E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="609966464"/>
+        <c:axId val="609960584"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="609966464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="609960584"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="609960584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.2"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="609966464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-AT"/>
+              <a:t>Relativer</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-AT" baseline="0"/>
+              <a:t> maximaler Fehler der Knotenspannungen</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-AT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Genauigkeit!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stromiteration</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Genauigkeit!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2 Knoten</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 Knoten mit Masse</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2 Knoten mit PV</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3 Knoten mit 2 PV</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3 Knoten mit PV und PQ</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3 Knoten mit unsymmetrischer Admittanzmatrix und PQ</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3 Knoten mit unsymmetrischer Admittanzmatrix und PV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Genauigkeit!$B$3:$H$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4.7977656403297398E-8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.2733963061535598E-7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.31638873923027E-8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.6103356814344799E-7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3175964622369601E-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.9542532683495097E-8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.08903977822049E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Genauigkeit!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Newton-Raphson</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Genauigkeit!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2 Knoten</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 Knoten mit Masse</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2 Knoten mit PV</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3 Knoten mit 2 PV</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3 Knoten mit PV und PQ</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3 Knoten mit unsymmetrischer Admittanzmatrix und PQ</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3 Knoten mit unsymmetrischer Admittanzmatrix und PV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Genauigkeit!$B$4:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.80566783747338E-10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.4760854204319499E-7</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>1.7894162782734801E-3</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>1.5080729711766201E-2</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>1.55868892612355E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.43702114973228E-6</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>1.4595368354669199E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Genauigkeit!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HELM, doppelte Genauigkeit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Genauigkeit!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2 Knoten</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 Knoten mit Masse</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2 Knoten mit PV</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3 Knoten mit 2 PV</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3 Knoten mit PV und PQ</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3 Knoten mit unsymmetrischer Admittanzmatrix und PQ</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3 Knoten mit unsymmetrischer Admittanzmatrix und PV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Genauigkeit!$B$6:$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4.7977655959208201E-8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6144922873032899E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5311200710519303E-8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9091482361342202E-5</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>3.1391361522774802E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.73648733806204E-7</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>1.3432408280888999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Genauigkeit!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HELM, höhere Genaugikeit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Genauigkeit!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2 Knoten</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 Knoten mit Masse</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2 Knoten mit PV</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3 Knoten mit 2 PV</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3 Knoten mit PV und PQ</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3 Knoten mit unsymmetrischer Admittanzmatrix und PQ</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3 Knoten mit unsymmetrischer Admittanzmatrix und PV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Genauigkeit!$B$7:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4.7977655848185898E-8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.26789087932513E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.53112007694705E-8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.14348223833662E-7</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>1.1487520422219901E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.7364873410729605E-7</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>3.87129873464397E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Genauigkeit!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HELM mit Newton-Raphson</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Genauigkeit!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2 Knoten</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 Knoten mit Masse</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2 Knoten mit PV</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3 Knoten mit 2 PV</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3 Knoten mit PV und PQ</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3 Knoten mit unsymmetrischer Admittanzmatrix und PQ</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3 Knoten mit unsymmetrischer Admittanzmatrix und PV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Genauigkeit!$B$8:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.66453751785394E-15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.76397753533781E-12</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>1.78941627827349E-3</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>1.50807297117661E-2</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>1.55868892612352E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.10713501939766E-12</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>1.3835859711010499E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Genauigkeit!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HELM mit Stromiteration</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Genauigkeit!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2 Knoten</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 Knoten mit Masse</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2 Knoten mit PV</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3 Knoten mit 2 PV</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3 Knoten mit PV und PQ</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3 Knoten mit unsymmetrischer Admittanzmatrix und PQ</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3 Knoten mit unsymmetrischer Admittanzmatrix und PV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Genauigkeit!$B$9:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.9433267947253801E-9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.86854488438495E-7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0819460491480304E-8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.26218937415778E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1548337407323499E-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7342459422404499E-7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0088777876222399E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="613494288"/>
+        <c:axId val="613494680"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Genauigkeit!$A$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Knotenpunktpotentialverfahren</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Genauigkeit!$B$1:$H$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>2 Knoten</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>5 Knoten mit Masse</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2 Knoten mit PV</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3 Knoten mit 2 PV</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>3 Knoten mit PV und PQ</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>3 Knoten mit unsymmetrischer Admittanzmatrix und PQ</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>3 Knoten mit unsymmetrischer Admittanzmatrix und PV</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Genauigkeit!$B$2:$H$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>3.4000000000004001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>8.4171263706343605E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3.0003737515906102E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.100102828225793</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.100102828225793</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>4.4909306180735499E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.100153258235891</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Genauigkeit!$A$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Fast-Decoupled-Loadflow</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Genauigkeit!$B$1:$H$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>2 Knoten</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>5 Knoten mit Masse</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2 Knoten mit PV</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3 Knoten mit 2 PV</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>3 Knoten mit PV und PQ</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>3 Knoten mit unsymmetrischer Admittanzmatrix und PQ</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>3 Knoten mit unsymmetrischer Admittanzmatrix und PV</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Genauigkeit!$B$5:$H$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0" formatCode="0.00E+00">
+                        <c:v>3.3623150761927601E-10</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.828892337692402</c:v>
+                      </c:pt>
+                      <c:pt idx="2" formatCode="0.00E+00">
+                        <c:v>4.5071537040223399E-9</c:v>
+                      </c:pt>
+                      <c:pt idx="3" formatCode="0.00E+00">
+                        <c:v>3.5544479789666701E-16</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.96377742932450094</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1.05019438063582</c:v>
+                      </c:pt>
+                      <c:pt idx="6" formatCode="0.00E+00">
+                        <c:v>8.9365560067241396E-9</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="613494288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="613494680"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="613494680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="4.0000000000000008E-2"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="613494288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1.0000000000000002E-2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Genauigkeit normiert'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Knotenpunktpotentialverfahren</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Genauigkeit normiert'!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2 Knoten</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 Knoten mit Masse</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2 Knoten mit PV</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3 Knoten mit 2 PV</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3 Knoten mit PV und PQ</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3 Knoten mit unsymmetrischer Admittanzmatrix und PQ</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3 Knoten mit unsymmetrischer Admittanzmatrix und PV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Genauigkeit normiert'!$B$2:$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1276018812727.7012</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30452947837.022232</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6656914.6486239703</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>281626932840621.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46455.012437187695</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40563531451.808411</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11207142.68008085</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Genauigkeit normiert'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stromiteration</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Genauigkeit normiert'!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2 Knoten</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 Knoten mit Masse</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2 Knoten mit PV</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3 Knoten mit 2 PV</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3 Knoten mit PV und PQ</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3 Knoten mit unsymmetrischer Admittanzmatrix und PQ</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3 Knoten mit unsymmetrischer Admittanzmatrix und PV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Genauigkeit normiert'!$B$3:$H$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>18005997.694466449</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>190790.12903442618</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.795445836439393</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2703749144.2562466</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0755337724799563</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44748.410822059312</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>121.86347597453236</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Genauigkeit normiert'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Newton-Raphson</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Genauigkeit normiert'!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2 Knoten</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 Knoten mit Masse</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2 Knoten mit PV</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3 Knoten mit 2 PV</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3 Knoten mit PV und PQ</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3 Knoten mit unsymmetrischer Admittanzmatrix und PQ</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3 Knoten mit unsymmetrischer Admittanzmatrix und PV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Genauigkeit normiert'!$B$4:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>67766.650886856078</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>234303.11345278175</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>397016.91927580436</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42427768815315.141</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7233.4533131721246</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6717356.9794390686</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1633220.710941351</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Genauigkeit normiert'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fast-Decoupled-Loadflow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Genauigkeit normiert'!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2 Knoten</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 Knoten mit Masse</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2 Knoten mit PV</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3 Knoten mit 2 PV</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3 Knoten mit PV und PQ</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3 Knoten mit unsymmetrischer Admittanzmatrix und PQ</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3 Knoten mit unsymmetrischer Admittanzmatrix und PV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Genauigkeit normiert'!$B$5:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>126187.56739821855</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>299891126861.52704</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>447263.0120395961</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>948569381544.0697</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Genauigkeit normiert'!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HELM, doppelte Genauigkeit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Genauigkeit normiert'!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2 Knoten</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 Knoten mit Masse</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2 Knoten mit PV</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3 Knoten mit 2 PV</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3 Knoten mit PV und PQ</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3 Knoten mit unsymmetrischer Admittanzmatrix und PQ</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3 Knoten mit unsymmetrischer Admittanzmatrix und PV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Genauigkeit normiert'!$B$6:$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>18005997.52779993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>584119.17848889774</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.271869197883728</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>138112817100.82535</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14567.881006033447</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>789107.66844094149</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1503085.5589985719</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Genauigkeit normiert'!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HELM, höhere Genaugikeit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Genauigkeit normiert'!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2 Knoten</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 Knoten mit Masse</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2 Knoten mit PV</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3 Knoten mit 2 PV</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3 Knoten mit PV und PQ</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3 Knoten mit unsymmetrischer Admittanzmatrix und PQ</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3 Knoten mit unsymmetrischer Admittanzmatrix und PV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Genauigkeit normiert'!$B$7:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>18005997.486133296</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>458719.67594344792</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.271869210963201</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2291068060.7862067</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5331.047219594635</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>789107.66871289746</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43319.806105742369</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Genauigkeit normiert'!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HELM mit Newton-Raphson</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Genauigkeit normiert'!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2 Knoten</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 Knoten mit Masse</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2 Knoten mit PV</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3 Knoten mit 2 PV</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3 Knoten mit PV und PQ</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3 Knoten mit unsymmetrischer Admittanzmatrix und PQ</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3 Knoten mit unsymmetrischer Admittanzmatrix und PV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Genauigkeit normiert'!$B$8:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>397016.91927580658</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42427768815314.859</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7233.4533131719854</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1548231.7461670886</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Genauigkeit normiert'!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HELM mit Stromiteration</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Genauigkeit normiert'!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2 Knoten</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 Knoten mit Masse</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2 Knoten mit PV</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3 Knoten mit 2 PV</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3 Knoten mit PV und PQ</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3 Knoten mit unsymmetrischer Admittanzmatrix und PQ</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3 Knoten mit unsymmetrischer Admittanzmatrix und PV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Genauigkeit normiert'!$B$9:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1104629.5182572552</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>212322.45231210621</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.493984116229033</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3551013776.6166348</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>156642.67788981795</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>112.89335476252029</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="606840536"/>
+        <c:axId val="606842104"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="606840536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="606842104"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="606842104"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="606840536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="100"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Berechnungsdauer normiert'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Knotenpunktpotentialverfahren</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Berechnungsdauer normiert'!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2 Knoten</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 Knoten mit Masse</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2 Knoten mit PV</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3 Knoten mit 2 PV</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3 Knoten mit PV und PQ</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3 Knoten mit unsymmetrischer Admittanzmatrix und PQ</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3 Knoten mit unsymmetrischer Admittanzmatrix und PV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Berechnungsdauer normiert'!$B$2:$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4.9078866924801305</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Berechnungsdauer normiert'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stromiteration</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Berechnungsdauer normiert'!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2 Knoten</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 Knoten mit Masse</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2 Knoten mit PV</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3 Knoten mit 2 PV</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3 Knoten mit PV und PQ</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3 Knoten mit unsymmetrischer Admittanzmatrix und PQ</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3 Knoten mit unsymmetrischer Admittanzmatrix und PV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Berechnungsdauer normiert'!$B$3:$H$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7905925119415564</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0883769447588612</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.6254319995407309</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.069022235521681</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0533377929053453</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.828828482448383</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Berechnungsdauer normiert'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Newton-Raphson</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Berechnungsdauer normiert'!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2 Knoten</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 Knoten mit Masse</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2 Knoten mit PV</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3 Knoten mit 2 PV</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3 Knoten mit PV und PQ</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3 Knoten mit unsymmetrischer Admittanzmatrix und PQ</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3 Knoten mit unsymmetrischer Admittanzmatrix und PV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Berechnungsdauer normiert'!$B$4:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.2511265086158097</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1090896319190784</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>149.29267372439355</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>205.18652046615762</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43.689592586725183</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5909260825938967</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.3483025106693836</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Berechnungsdauer normiert'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fast-Decoupled-Loadflow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Berechnungsdauer normiert'!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2 Knoten</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 Knoten mit Masse</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2 Knoten mit PV</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3 Knoten mit 2 PV</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3 Knoten mit PV und PQ</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3 Knoten mit unsymmetrischer Admittanzmatrix und PQ</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3 Knoten mit unsymmetrischer Admittanzmatrix und PV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Berechnungsdauer normiert'!$B$5:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4.841235876185948</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.630619556055066</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2121091062432032</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3786095642689016</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41.822440489811243</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>434.64448029590574</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1105771079241795</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Berechnungsdauer normiert'!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HELM, doppelte Genauigkeit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Berechnungsdauer normiert'!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2 Knoten</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 Knoten mit Masse</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2 Knoten mit PV</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3 Knoten mit 2 PV</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3 Knoten mit PV und PQ</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3 Knoten mit unsymmetrischer Admittanzmatrix und PQ</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3 Knoten mit unsymmetrischer Admittanzmatrix und PV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Berechnungsdauer normiert'!$B$6:$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.4268278875982159</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9240569682495079</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1813702643318464</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.219300763534072</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1303483871472464</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5275149034961735</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.390076511976623</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Berechnungsdauer normiert'!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HELM, höhere Genaugikeit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Berechnungsdauer normiert'!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2 Knoten</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 Knoten mit Masse</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2 Knoten mit PV</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3 Knoten mit 2 PV</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3 Knoten mit PV und PQ</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3 Knoten mit unsymmetrischer Admittanzmatrix und PQ</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3 Knoten mit unsymmetrischer Admittanzmatrix und PV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Berechnungsdauer normiert'!$B$7:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8.3808051989221752</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>175.49993853610565</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.683511995916284</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2524.958906940697</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>494.0963604466271</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65.595293839888242</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5534.7917067169055</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Berechnungsdauer normiert'!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HELM mit Newton-Raphson</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Berechnungsdauer normiert'!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2 Knoten</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 Knoten mit Masse</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2 Knoten mit PV</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3 Knoten mit 2 PV</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3 Knoten mit PV und PQ</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3 Knoten mit unsymmetrischer Admittanzmatrix und PQ</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3 Knoten mit unsymmetrischer Admittanzmatrix und PV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Berechnungsdauer normiert'!$B$8:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.1836944953920703</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7172573054228715</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>154.68648600661385</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>224.23213732131578</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42.065693459208795</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.3966986050721069</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>368.77744242377634</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Berechnungsdauer normiert'!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HELM mit Stromiteration</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Berechnungsdauer normiert'!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2 Knoten</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 Knoten mit Masse</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2 Knoten mit PV</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3 Knoten mit 2 PV</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3 Knoten mit PV und PQ</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3 Knoten mit unsymmetrischer Admittanzmatrix und PQ</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3 Knoten mit unsymmetrischer Admittanzmatrix und PV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Berechnungsdauer normiert'!$B$9:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.148551955256663</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7293744731666201</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1167854051534722</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.706860324932544</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4728661702839236</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.4937533200857813</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26.441789380599023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="477823416"/>
+        <c:axId val="477821848"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="477823416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="477821848"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="477821848"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="477823416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-AT"/>
+              <a:t>Standardabweichung</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-AT" baseline="0"/>
+              <a:t> der Berechnungsdauer</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Berechnungsdauer - Sigma'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Knotenpunktpotentialverfahren</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Berechnungsdauer - Sigma'!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2 Knoten</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 Knoten mit Masse</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2 Knoten mit PV</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3 Knoten mit 2 PV</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3 Knoten mit PV und PQ</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3 Knoten mit unsymmetrischer Admittanzmatrix und PQ</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3 Knoten mit unsymmetrischer Admittanzmatrix und PV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Berechnungsdauer - Sigma'!$B$2:$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.8663693710375099E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.3065540080168795E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.08775444955433E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6457913950834701E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6051081219716803E-3</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00E+00">
+                  <c:v>2.1152428305807399E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5144509848306599E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Berechnungsdauer - Sigma'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stromiteration</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Berechnungsdauer - Sigma'!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2 Knoten</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 Knoten mit Masse</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2 Knoten mit PV</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3 Knoten mit 2 PV</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3 Knoten mit PV und PQ</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3 Knoten mit unsymmetrischer Admittanzmatrix und PQ</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3 Knoten mit unsymmetrischer Admittanzmatrix und PV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Berechnungsdauer - Sigma'!$B$3:$H$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>3.09113881998924E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.2658069002412706E-5</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>1.02539523712724E-4</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>4.9094291866763802E-4</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>1.1434853388220599E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.3952312725718898E-5</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>7.9825745353314E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Berechnungsdauer - Sigma'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Newton-Raphson</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Berechnungsdauer - Sigma'!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2 Knoten</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 Knoten mit Masse</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2 Knoten mit PV</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3 Knoten mit 2 PV</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3 Knoten mit PV und PQ</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3 Knoten mit unsymmetrischer Admittanzmatrix und PQ</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3 Knoten mit unsymmetrischer Admittanzmatrix und PV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Berechnungsdauer - Sigma'!$B$4:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>2.11661219830157E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3978484766369899E-5</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>1.3824123280145001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>4.8877375733419402E-4</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>2.9519789893237901E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7503534390562802E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.8060720811446397E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Berechnungsdauer - Sigma'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fast-Decoupled-Loadflow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Berechnungsdauer - Sigma'!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2 Knoten</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 Knoten mit Masse</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2 Knoten mit PV</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3 Knoten mit 2 PV</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3 Knoten mit PV und PQ</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3 Knoten mit unsymmetrischer Admittanzmatrix und PQ</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3 Knoten mit unsymmetrischer Admittanzmatrix und PV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Berechnungsdauer - Sigma'!$B$5:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0963675588469E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1484765829875398E-4</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00E+00">
+                  <c:v>1.59558419686738E-5</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00E+00">
+                  <c:v>1.8436231894415001E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.5230165124589403E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.04596798397948E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.65664070353413E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Berechnungsdauer - Sigma'!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HELM, doppelte Genauigkeit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Berechnungsdauer - Sigma'!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2 Knoten</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 Knoten mit Masse</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2 Knoten mit PV</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3 Knoten mit 2 PV</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3 Knoten mit PV und PQ</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3 Knoten mit unsymmetrischer Admittanzmatrix und PQ</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3 Knoten mit unsymmetrischer Admittanzmatrix und PV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Berechnungsdauer - Sigma'!$B$6:$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>4.9763539137757799E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3312485816606799E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8768418670573701E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7208192375151099E-5</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>4.72439276494607E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0490264847857701E-5</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>1.34629471532241E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Berechnungsdauer - Sigma'!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HELM, höhere Genaugikeit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Berechnungsdauer - Sigma'!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2 Knoten</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 Knoten mit Masse</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2 Knoten mit PV</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3 Knoten mit 2 PV</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3 Knoten mit PV und PQ</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3 Knoten mit unsymmetrischer Admittanzmatrix und PQ</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3 Knoten mit unsymmetrischer Admittanzmatrix und PV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Berechnungsdauer - Sigma'!$B$7:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0" formatCode="0.00E+00">
+                  <c:v>8.4086979084250395E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0463985282674899E-4</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00E+00">
+                  <c:v>5.5749391073360697E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7532193758716202E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.4367611779380402E-3</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00E+00">
+                  <c:v>8.1068973352350004E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.1227782682287298E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Berechnungsdauer - Sigma'!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HELM mit Newton-Raphson</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Berechnungsdauer - Sigma'!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2 Knoten</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 Knoten mit Masse</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2 Knoten mit PV</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3 Knoten mit 2 PV</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3 Knoten mit PV und PQ</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3 Knoten mit unsymmetrischer Admittanzmatrix und PQ</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3 Knoten mit unsymmetrischer Admittanzmatrix und PV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Berechnungsdauer - Sigma'!$B$8:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0" formatCode="0.00E+00">
+                  <c:v>2.6643309827907202E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8518907591262999E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0614950545872099E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.06266119680163E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.37875392780048E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.2150475087368903E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2130797571666401E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Berechnungsdauer - Sigma'!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HELM mit Stromiteration</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Berechnungsdauer - Sigma'!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2 Knoten</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 Knoten mit Masse</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2 Knoten mit PV</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3 Knoten mit 2 PV</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3 Knoten mit PV und PQ</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3 Knoten mit unsymmetrischer Admittanzmatrix und PQ</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3 Knoten mit unsymmetrischer Admittanzmatrix und PV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Berechnungsdauer - Sigma'!$B$9:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0" formatCode="0.00E+00">
+                  <c:v>1.6429177389539901E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6588919734862099E-4</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00E+00">
+                  <c:v>1.3018278175959601E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6798884851478999E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7640555467788501E-4</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00E+00">
+                  <c:v>2.8116837239697401E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.38237921455304E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="620302552"/>
+        <c:axId val="620304120"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="620302552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="620304120"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="620304120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="620302552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -523,7 +5322,2722 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1040,6 +8554,178 @@
       <xdr:colOff>323849</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>23811</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495299</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>552449</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1350,8 +9036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U21" sqref="U21"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1832,4 +9518,1386 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="271.5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2">
+        <v>3.4000000000004001E-3</v>
+      </c>
+      <c r="C2" s="2">
+        <v>8.4171263706343605E-2</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3.0003737515906102E-2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.100102828225793</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.100102828225793</v>
+      </c>
+      <c r="G2" s="2">
+        <v>4.4909306180735499E-2</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.100153258235891</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="4">
+        <v>4.7977656403297398E-8</v>
+      </c>
+      <c r="C3" s="4">
+        <v>5.2733963061535598E-7</v>
+      </c>
+      <c r="D3" s="4">
+        <v>5.31638873923027E-8</v>
+      </c>
+      <c r="E3" s="4">
+        <v>9.6103356814344799E-7</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2.3175964622369601E-6</v>
+      </c>
+      <c r="G3" s="4">
+        <v>4.9542532683495097E-8</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1.08903977822049E-6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1.80566783747338E-10</v>
+      </c>
+      <c r="C4" s="4">
+        <v>6.4760854204319499E-7</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.7894162782734801E-3</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1.5080729711766201E-2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1.55868892612355E-2</v>
+      </c>
+      <c r="G4" s="4">
+        <v>7.43702114973228E-6</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1.4595368354669199E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="4">
+        <v>3.3623150761927601E-10</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.828892337692402</v>
+      </c>
+      <c r="D5" s="4">
+        <v>4.5071537040223399E-9</v>
+      </c>
+      <c r="E5" s="4">
+        <v>3.5544479789666701E-16</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.96377742932450094</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1.05019438063582</v>
+      </c>
+      <c r="H5" s="4">
+        <v>8.9365560067241396E-9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="4">
+        <v>4.7977655959208201E-8</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1.6144922873032899E-6</v>
+      </c>
+      <c r="D6" s="4">
+        <v>5.5311200710519303E-8</v>
+      </c>
+      <c r="E6" s="4">
+        <v>4.9091482361342202E-5</v>
+      </c>
+      <c r="F6" s="2">
+        <v>3.1391361522774802E-2</v>
+      </c>
+      <c r="G6" s="4">
+        <v>8.73648733806204E-7</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1.3432408280888999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="4">
+        <v>4.7977655848185898E-8</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1.26789087932513E-6</v>
+      </c>
+      <c r="D7" s="4">
+        <v>5.53112007694705E-8</v>
+      </c>
+      <c r="E7" s="4">
+        <v>8.14348223833662E-7</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1.1487520422219901E-2</v>
+      </c>
+      <c r="G7" s="4">
+        <v>8.7364873410729605E-7</v>
+      </c>
+      <c r="H7" s="2">
+        <v>3.87129873464397E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="4">
+        <v>2.66453751785394E-15</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2.76397753533781E-12</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1.78941627827349E-3</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1.50807297117661E-2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1.55868892612352E-2</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1.10713501939766E-12</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1.3835859711010499E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="4">
+        <v>2.9433267947253801E-9</v>
+      </c>
+      <c r="C9" s="4">
+        <v>5.86854488438495E-7</v>
+      </c>
+      <c r="D9" s="4">
+        <v>6.0819460491480304E-8</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.26218937415778E-6</v>
+      </c>
+      <c r="F9" s="4">
+        <v>2.1548337407323499E-6</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.7342459422404499E-7</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1.0088777876222399E-6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="271.5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="3">
+        <f>Genauigkeit!B2/MIN(Genauigkeit!B$2:B$9)</f>
+        <v>1276018812727.7012</v>
+      </c>
+      <c r="C2" s="3">
+        <f>Genauigkeit!C2/MIN(Genauigkeit!C$2:C$9)</f>
+        <v>30452947837.022232</v>
+      </c>
+      <c r="D2" s="3">
+        <f>Genauigkeit!D2/MIN(Genauigkeit!D$2:D$9)</f>
+        <v>6656914.6486239703</v>
+      </c>
+      <c r="E2" s="3">
+        <f>Genauigkeit!E2/MIN(Genauigkeit!E$2:E$9)</f>
+        <v>281626932840621.75</v>
+      </c>
+      <c r="F2" s="3">
+        <f>Genauigkeit!F2/MIN(Genauigkeit!F$2:F$9)</f>
+        <v>46455.012437187695</v>
+      </c>
+      <c r="G2" s="3">
+        <f>Genauigkeit!G2/MIN(Genauigkeit!G$2:G$9)</f>
+        <v>40563531451.808411</v>
+      </c>
+      <c r="H2" s="3">
+        <f>Genauigkeit!H2/MIN(Genauigkeit!H$2:H$9)</f>
+        <v>11207142.68008085</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="3">
+        <f>Genauigkeit!B3/MIN(Genauigkeit!B$2:B$9)</f>
+        <v>18005997.694466449</v>
+      </c>
+      <c r="C3" s="3">
+        <f>Genauigkeit!C3/MIN(Genauigkeit!C$2:C$9)</f>
+        <v>190790.12903442618</v>
+      </c>
+      <c r="D3" s="3">
+        <f>Genauigkeit!D3/MIN(Genauigkeit!D$2:D$9)</f>
+        <v>11.795445836439393</v>
+      </c>
+      <c r="E3" s="3">
+        <f>Genauigkeit!E3/MIN(Genauigkeit!E$2:E$9)</f>
+        <v>2703749144.2562466</v>
+      </c>
+      <c r="F3" s="3">
+        <f>Genauigkeit!F3/MIN(Genauigkeit!F$2:F$9)</f>
+        <v>1.0755337724799563</v>
+      </c>
+      <c r="G3" s="3">
+        <f>Genauigkeit!G3/MIN(Genauigkeit!G$2:G$9)</f>
+        <v>44748.410822059312</v>
+      </c>
+      <c r="H3" s="3">
+        <f>Genauigkeit!H3/MIN(Genauigkeit!H$2:H$9)</f>
+        <v>121.86347597453236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="3">
+        <f>Genauigkeit!B4/MIN(Genauigkeit!B$2:B$9)</f>
+        <v>67766.650886856078</v>
+      </c>
+      <c r="C4" s="3">
+        <f>Genauigkeit!C4/MIN(Genauigkeit!C$2:C$9)</f>
+        <v>234303.11345278175</v>
+      </c>
+      <c r="D4" s="3">
+        <f>Genauigkeit!D4/MIN(Genauigkeit!D$2:D$9)</f>
+        <v>397016.91927580436</v>
+      </c>
+      <c r="E4" s="3">
+        <f>Genauigkeit!E4/MIN(Genauigkeit!E$2:E$9)</f>
+        <v>42427768815315.141</v>
+      </c>
+      <c r="F4" s="3">
+        <f>Genauigkeit!F4/MIN(Genauigkeit!F$2:F$9)</f>
+        <v>7233.4533131721246</v>
+      </c>
+      <c r="G4" s="3">
+        <f>Genauigkeit!G4/MIN(Genauigkeit!G$2:G$9)</f>
+        <v>6717356.9794390686</v>
+      </c>
+      <c r="H4" s="3">
+        <f>Genauigkeit!H4/MIN(Genauigkeit!H$2:H$9)</f>
+        <v>1633220.710941351</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="3">
+        <f>Genauigkeit!B5/MIN(Genauigkeit!B$2:B$9)</f>
+        <v>126187.56739821855</v>
+      </c>
+      <c r="C5" s="3">
+        <f>Genauigkeit!C5/MIN(Genauigkeit!C$2:C$9)</f>
+        <v>299891126861.52704</v>
+      </c>
+      <c r="D5" s="3">
+        <f>Genauigkeit!D5/MIN(Genauigkeit!D$2:D$9)</f>
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <f>Genauigkeit!E5/MIN(Genauigkeit!E$2:E$9)</f>
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <f>Genauigkeit!F5/MIN(Genauigkeit!F$2:F$9)</f>
+        <v>447263.0120395961</v>
+      </c>
+      <c r="G5" s="3">
+        <f>Genauigkeit!G5/MIN(Genauigkeit!G$2:G$9)</f>
+        <v>948569381544.0697</v>
+      </c>
+      <c r="H5" s="3">
+        <f>Genauigkeit!H5/MIN(Genauigkeit!H$2:H$9)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="3">
+        <f>Genauigkeit!B6/MIN(Genauigkeit!B$2:B$9)</f>
+        <v>18005997.52779993</v>
+      </c>
+      <c r="C6" s="3">
+        <f>Genauigkeit!C6/MIN(Genauigkeit!C$2:C$9)</f>
+        <v>584119.17848889774</v>
+      </c>
+      <c r="D6" s="3">
+        <f>Genauigkeit!D6/MIN(Genauigkeit!D$2:D$9)</f>
+        <v>12.271869197883728</v>
+      </c>
+      <c r="E6" s="3">
+        <f>Genauigkeit!E6/MIN(Genauigkeit!E$2:E$9)</f>
+        <v>138112817100.82535</v>
+      </c>
+      <c r="F6" s="3">
+        <f>Genauigkeit!F6/MIN(Genauigkeit!F$2:F$9)</f>
+        <v>14567.881006033447</v>
+      </c>
+      <c r="G6" s="3">
+        <f>Genauigkeit!G6/MIN(Genauigkeit!G$2:G$9)</f>
+        <v>789107.66844094149</v>
+      </c>
+      <c r="H6" s="3">
+        <f>Genauigkeit!H6/MIN(Genauigkeit!H$2:H$9)</f>
+        <v>1503085.5589985719</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="3">
+        <f>Genauigkeit!B7/MIN(Genauigkeit!B$2:B$9)</f>
+        <v>18005997.486133296</v>
+      </c>
+      <c r="C7" s="3">
+        <f>Genauigkeit!C7/MIN(Genauigkeit!C$2:C$9)</f>
+        <v>458719.67594344792</v>
+      </c>
+      <c r="D7" s="3">
+        <f>Genauigkeit!D7/MIN(Genauigkeit!D$2:D$9)</f>
+        <v>12.271869210963201</v>
+      </c>
+      <c r="E7" s="3">
+        <f>Genauigkeit!E7/MIN(Genauigkeit!E$2:E$9)</f>
+        <v>2291068060.7862067</v>
+      </c>
+      <c r="F7" s="3">
+        <f>Genauigkeit!F7/MIN(Genauigkeit!F$2:F$9)</f>
+        <v>5331.047219594635</v>
+      </c>
+      <c r="G7" s="3">
+        <f>Genauigkeit!G7/MIN(Genauigkeit!G$2:G$9)</f>
+        <v>789107.66871289746</v>
+      </c>
+      <c r="H7" s="3">
+        <f>Genauigkeit!H7/MIN(Genauigkeit!H$2:H$9)</f>
+        <v>43319.806105742369</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="3">
+        <f>Genauigkeit!B8/MIN(Genauigkeit!B$2:B$9)</f>
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
+        <f>Genauigkeit!C8/MIN(Genauigkeit!C$2:C$9)</f>
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <f>Genauigkeit!D8/MIN(Genauigkeit!D$2:D$9)</f>
+        <v>397016.91927580658</v>
+      </c>
+      <c r="E8" s="3">
+        <f>Genauigkeit!E8/MIN(Genauigkeit!E$2:E$9)</f>
+        <v>42427768815314.859</v>
+      </c>
+      <c r="F8" s="3">
+        <f>Genauigkeit!F8/MIN(Genauigkeit!F$2:F$9)</f>
+        <v>7233.4533131719854</v>
+      </c>
+      <c r="G8" s="3">
+        <f>Genauigkeit!G8/MIN(Genauigkeit!G$2:G$9)</f>
+        <v>1</v>
+      </c>
+      <c r="H8" s="3">
+        <f>Genauigkeit!H8/MIN(Genauigkeit!H$2:H$9)</f>
+        <v>1548231.7461670886</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="3">
+        <f>Genauigkeit!B9/MIN(Genauigkeit!B$2:B$9)</f>
+        <v>1104629.5182572552</v>
+      </c>
+      <c r="C9" s="3">
+        <f>Genauigkeit!C9/MIN(Genauigkeit!C$2:C$9)</f>
+        <v>212322.45231210621</v>
+      </c>
+      <c r="D9" s="3">
+        <f>Genauigkeit!D9/MIN(Genauigkeit!D$2:D$9)</f>
+        <v>13.493984116229033</v>
+      </c>
+      <c r="E9" s="3">
+        <f>Genauigkeit!E9/MIN(Genauigkeit!E$2:E$9)</f>
+        <v>3551013776.6166348</v>
+      </c>
+      <c r="F9" s="3">
+        <f>Genauigkeit!F9/MIN(Genauigkeit!F$2:F$9)</f>
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <f>Genauigkeit!G9/MIN(Genauigkeit!G$2:G$9)</f>
+        <v>156642.67788981795</v>
+      </c>
+      <c r="H9" s="3">
+        <f>Genauigkeit!H9/MIN(Genauigkeit!H$2:H$9)</f>
+        <v>112.89335476252029</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="271.5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2">
+        <v>4.3349399999999998E-4</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1.13888E-4</v>
+      </c>
+      <c r="D2" s="4">
+        <v>4.5056999999999999E-5</v>
+      </c>
+      <c r="E2" s="4">
+        <v>8.7095000000000006E-5</v>
+      </c>
+      <c r="F2" s="2">
+        <v>5.11299E-4</v>
+      </c>
+      <c r="G2" s="4">
+        <v>5.0827E-5</v>
+      </c>
+      <c r="H2" s="4">
+        <v>5.2018000000000002E-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="4">
+        <v>8.8325999999999994E-5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3.1781499999999999E-4</v>
+      </c>
+      <c r="D3" s="4">
+        <v>9.4096000000000002E-5</v>
+      </c>
+      <c r="E3" s="2">
+        <v>4.0285199999999998E-4</v>
+      </c>
+      <c r="F3" s="2">
+        <v>5.4659000000000001E-4</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1.5519199999999999E-4</v>
+      </c>
+      <c r="H3" s="2">
+        <v>6.6733000000000005E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2.8715899999999999E-4</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1.2631200000000001E-4</v>
+      </c>
+      <c r="D4" s="2">
+        <v>6.7266799999999996E-3</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1.787072E-2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2.2338444999999998E-2</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1.3168899999999999E-4</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1.22154E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2">
+        <v>4.2760699999999999E-4</v>
+      </c>
+      <c r="C5" s="2">
+        <v>4.6273399999999998E-3</v>
+      </c>
+      <c r="D5" s="4">
+        <v>5.4614000000000003E-5</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1.2006999999999999E-4</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2.1383771999999999E-2</v>
+      </c>
+      <c r="G5" s="2">
+        <v>2.2091675000000002E-2</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1.6180599999999999E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1.26026E-4</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3.3301499999999998E-4</v>
+      </c>
+      <c r="D6" s="4">
+        <v>9.8286000000000001E-5</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1.1513350000000001E-3</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1.089245E-3</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1.2846600000000001E-4</v>
+      </c>
+      <c r="H6" s="2">
+        <v>8.5257900000000001E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2">
+        <v>7.4024300000000002E-4</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1.9987337000000001E-2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1.4726209999999999E-3</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.21991129600000001</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.25263097499999998</v>
+      </c>
+      <c r="G7" s="2">
+        <v>3.3340119999999999E-3</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.287908795</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1.04551E-4</v>
+      </c>
+      <c r="C8" s="2">
+        <v>4.2335099999999998E-4</v>
+      </c>
+      <c r="D8" s="2">
+        <v>6.9697090000000001E-3</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1.9529497999999999E-2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2.1508146999999998E-2</v>
+      </c>
+      <c r="G8" s="2">
+        <v>2.2347099999999999E-4</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1.9183064999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1.0144700000000001E-4</v>
+      </c>
+      <c r="C9" s="2">
+        <v>4.2473100000000002E-4</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1.40433E-4</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1.1937989999999999E-3</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1.264374E-3</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1.77577E-4</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1.3754489999999999E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="271.5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <f>Berechnungsdauer!B2/MIN(Berechnungsdauer!B$2:B$9)</f>
+        <v>4.9078866924801305</v>
+      </c>
+      <c r="C2">
+        <f>Berechnungsdauer!C2/MIN(Berechnungsdauer!C$2:C$9)</f>
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <f>Berechnungsdauer!D2/MIN(Berechnungsdauer!D$2:D$9)</f>
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <f>Berechnungsdauer!E2/MIN(Berechnungsdauer!E$2:E$9)</f>
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <f>Berechnungsdauer!F2/MIN(Berechnungsdauer!F$2:F$9)</f>
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <f>Berechnungsdauer!G2/MIN(Berechnungsdauer!G$2:G$9)</f>
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <f>Berechnungsdauer!H2/MIN(Berechnungsdauer!H$2:H$9)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <f>Berechnungsdauer!B3/MIN(Berechnungsdauer!B$2:B$9)</f>
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <f>Berechnungsdauer!C3/MIN(Berechnungsdauer!C$2:C$9)</f>
+        <v>2.7905925119415564</v>
+      </c>
+      <c r="D3">
+        <f>Berechnungsdauer!D3/MIN(Berechnungsdauer!D$2:D$9)</f>
+        <v>2.0883769447588612</v>
+      </c>
+      <c r="E3">
+        <f>Berechnungsdauer!E3/MIN(Berechnungsdauer!E$2:E$9)</f>
+        <v>4.6254319995407309</v>
+      </c>
+      <c r="F3">
+        <f>Berechnungsdauer!F3/MIN(Berechnungsdauer!F$2:F$9)</f>
+        <v>1.069022235521681</v>
+      </c>
+      <c r="G3">
+        <f>Berechnungsdauer!G3/MIN(Berechnungsdauer!G$2:G$9)</f>
+        <v>3.0533377929053453</v>
+      </c>
+      <c r="H3">
+        <f>Berechnungsdauer!H3/MIN(Berechnungsdauer!H$2:H$9)</f>
+        <v>12.828828482448383</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <f>Berechnungsdauer!B4/MIN(Berechnungsdauer!B$2:B$9)</f>
+        <v>3.2511265086158097</v>
+      </c>
+      <c r="C4">
+        <f>Berechnungsdauer!C4/MIN(Berechnungsdauer!C$2:C$9)</f>
+        <v>1.1090896319190784</v>
+      </c>
+      <c r="D4">
+        <f>Berechnungsdauer!D4/MIN(Berechnungsdauer!D$2:D$9)</f>
+        <v>149.29267372439355</v>
+      </c>
+      <c r="E4">
+        <f>Berechnungsdauer!E4/MIN(Berechnungsdauer!E$2:E$9)</f>
+        <v>205.18652046615762</v>
+      </c>
+      <c r="F4">
+        <f>Berechnungsdauer!F4/MIN(Berechnungsdauer!F$2:F$9)</f>
+        <v>43.689592586725183</v>
+      </c>
+      <c r="G4">
+        <f>Berechnungsdauer!G4/MIN(Berechnungsdauer!G$2:G$9)</f>
+        <v>2.5909260825938967</v>
+      </c>
+      <c r="H4">
+        <f>Berechnungsdauer!H4/MIN(Berechnungsdauer!H$2:H$9)</f>
+        <v>2.3483025106693836</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <f>Berechnungsdauer!B5/MIN(Berechnungsdauer!B$2:B$9)</f>
+        <v>4.841235876185948</v>
+      </c>
+      <c r="C5">
+        <f>Berechnungsdauer!C5/MIN(Berechnungsdauer!C$2:C$9)</f>
+        <v>40.630619556055066</v>
+      </c>
+      <c r="D5">
+        <f>Berechnungsdauer!D5/MIN(Berechnungsdauer!D$2:D$9)</f>
+        <v>1.2121091062432032</v>
+      </c>
+      <c r="E5">
+        <f>Berechnungsdauer!E5/MIN(Berechnungsdauer!E$2:E$9)</f>
+        <v>1.3786095642689016</v>
+      </c>
+      <c r="F5">
+        <f>Berechnungsdauer!F5/MIN(Berechnungsdauer!F$2:F$9)</f>
+        <v>41.822440489811243</v>
+      </c>
+      <c r="G5">
+        <f>Berechnungsdauer!G5/MIN(Berechnungsdauer!G$2:G$9)</f>
+        <v>434.64448029590574</v>
+      </c>
+      <c r="H5">
+        <f>Berechnungsdauer!H5/MIN(Berechnungsdauer!H$2:H$9)</f>
+        <v>3.1105771079241795</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6">
+        <f>Berechnungsdauer!B6/MIN(Berechnungsdauer!B$2:B$9)</f>
+        <v>1.4268278875982159</v>
+      </c>
+      <c r="C6">
+        <f>Berechnungsdauer!C6/MIN(Berechnungsdauer!C$2:C$9)</f>
+        <v>2.9240569682495079</v>
+      </c>
+      <c r="D6">
+        <f>Berechnungsdauer!D6/MIN(Berechnungsdauer!D$2:D$9)</f>
+        <v>2.1813702643318464</v>
+      </c>
+      <c r="E6">
+        <f>Berechnungsdauer!E6/MIN(Berechnungsdauer!E$2:E$9)</f>
+        <v>13.219300763534072</v>
+      </c>
+      <c r="F6">
+        <f>Berechnungsdauer!F6/MIN(Berechnungsdauer!F$2:F$9)</f>
+        <v>2.1303483871472464</v>
+      </c>
+      <c r="G6">
+        <f>Berechnungsdauer!G6/MIN(Berechnungsdauer!G$2:G$9)</f>
+        <v>2.5275149034961735</v>
+      </c>
+      <c r="H6">
+        <f>Berechnungsdauer!H6/MIN(Berechnungsdauer!H$2:H$9)</f>
+        <v>16.390076511976623</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <f>Berechnungsdauer!B7/MIN(Berechnungsdauer!B$2:B$9)</f>
+        <v>8.3808051989221752</v>
+      </c>
+      <c r="C7">
+        <f>Berechnungsdauer!C7/MIN(Berechnungsdauer!C$2:C$9)</f>
+        <v>175.49993853610565</v>
+      </c>
+      <c r="D7">
+        <f>Berechnungsdauer!D7/MIN(Berechnungsdauer!D$2:D$9)</f>
+        <v>32.683511995916284</v>
+      </c>
+      <c r="E7">
+        <f>Berechnungsdauer!E7/MIN(Berechnungsdauer!E$2:E$9)</f>
+        <v>2524.958906940697</v>
+      </c>
+      <c r="F7">
+        <f>Berechnungsdauer!F7/MIN(Berechnungsdauer!F$2:F$9)</f>
+        <v>494.0963604466271</v>
+      </c>
+      <c r="G7">
+        <f>Berechnungsdauer!G7/MIN(Berechnungsdauer!G$2:G$9)</f>
+        <v>65.595293839888242</v>
+      </c>
+      <c r="H7">
+        <f>Berechnungsdauer!H7/MIN(Berechnungsdauer!H$2:H$9)</f>
+        <v>5534.7917067169055</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <f>Berechnungsdauer!B8/MIN(Berechnungsdauer!B$2:B$9)</f>
+        <v>1.1836944953920703</v>
+      </c>
+      <c r="C8">
+        <f>Berechnungsdauer!C8/MIN(Berechnungsdauer!C$2:C$9)</f>
+        <v>3.7172573054228715</v>
+      </c>
+      <c r="D8">
+        <f>Berechnungsdauer!D8/MIN(Berechnungsdauer!D$2:D$9)</f>
+        <v>154.68648600661385</v>
+      </c>
+      <c r="E8">
+        <f>Berechnungsdauer!E8/MIN(Berechnungsdauer!E$2:E$9)</f>
+        <v>224.23213732131578</v>
+      </c>
+      <c r="F8">
+        <f>Berechnungsdauer!F8/MIN(Berechnungsdauer!F$2:F$9)</f>
+        <v>42.065693459208795</v>
+      </c>
+      <c r="G8">
+        <f>Berechnungsdauer!G8/MIN(Berechnungsdauer!G$2:G$9)</f>
+        <v>4.3966986050721069</v>
+      </c>
+      <c r="H8">
+        <f>Berechnungsdauer!H8/MIN(Berechnungsdauer!H$2:H$9)</f>
+        <v>368.77744242377634</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9">
+        <f>Berechnungsdauer!B9/MIN(Berechnungsdauer!B$2:B$9)</f>
+        <v>1.148551955256663</v>
+      </c>
+      <c r="C9">
+        <f>Berechnungsdauer!C9/MIN(Berechnungsdauer!C$2:C$9)</f>
+        <v>3.7293744731666201</v>
+      </c>
+      <c r="D9">
+        <f>Berechnungsdauer!D9/MIN(Berechnungsdauer!D$2:D$9)</f>
+        <v>3.1167854051534722</v>
+      </c>
+      <c r="E9">
+        <f>Berechnungsdauer!E9/MIN(Berechnungsdauer!E$2:E$9)</f>
+        <v>13.706860324932544</v>
+      </c>
+      <c r="F9">
+        <f>Berechnungsdauer!F9/MIN(Berechnungsdauer!F$2:F$9)</f>
+        <v>2.4728661702839236</v>
+      </c>
+      <c r="G9">
+        <f>Berechnungsdauer!G9/MIN(Berechnungsdauer!G$2:G$9)</f>
+        <v>3.4937533200857813</v>
+      </c>
+      <c r="H9">
+        <f>Berechnungsdauer!H9/MIN(Berechnungsdauer!H$2:H$9)</f>
+        <v>26.441789380599023</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="271.5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2">
+        <v>3.8663693710375099E-3</v>
+      </c>
+      <c r="C2" s="2">
+        <v>5.3065540080168795E-4</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1.08775444955433E-4</v>
+      </c>
+      <c r="E2" s="2">
+        <v>3.6457913950834701E-4</v>
+      </c>
+      <c r="F2" s="2">
+        <v>4.6051081219716803E-3</v>
+      </c>
+      <c r="G2" s="4">
+        <v>2.1152428305807399E-5</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1.5144509848306599E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2">
+        <v>3.09113881998924E-4</v>
+      </c>
+      <c r="C3" s="4">
+        <v>6.2658069002412706E-5</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1.02539523712724E-4</v>
+      </c>
+      <c r="E3" s="2">
+        <v>4.9094291866763802E-4</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1.1434853388220599E-3</v>
+      </c>
+      <c r="G3" s="4">
+        <v>4.3952312725718898E-5</v>
+      </c>
+      <c r="H3" s="2">
+        <v>7.9825745353314E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2.11661219830157E-3</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1.3978484766369899E-5</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.3824123280145001E-3</v>
+      </c>
+      <c r="E4" s="2">
+        <v>4.8877375733419402E-4</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2.9519789893237901E-3</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1.7503534390562802E-5</v>
+      </c>
+      <c r="H4" s="4">
+        <v>3.8060720811446397E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1.0963675588469E-3</v>
+      </c>
+      <c r="C5" s="2">
+        <v>4.1484765829875398E-4</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1.59558419686738E-5</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1.8436231894415001E-5</v>
+      </c>
+      <c r="F5" s="2">
+        <v>9.5230165124589403E-4</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1.04596798397948E-3</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1.65664070353413E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2">
+        <v>4.9763539137757799E-4</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2.3312485816606799E-5</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1.8768418670573701E-5</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2.7208192375151099E-5</v>
+      </c>
+      <c r="F6" s="2">
+        <v>4.72439276494607E-4</v>
+      </c>
+      <c r="G6" s="4">
+        <v>2.0490264847857701E-5</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1.34629471532241E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="4">
+        <v>8.4086979084250395E-5</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3.0463985282674899E-4</v>
+      </c>
+      <c r="D7" s="4">
+        <v>5.5749391073360697E-5</v>
+      </c>
+      <c r="E7" s="2">
+        <v>3.7532193758716202E-3</v>
+      </c>
+      <c r="F7" s="2">
+        <v>5.4367611779380402E-3</v>
+      </c>
+      <c r="G7" s="4">
+        <v>8.1068973352350004E-5</v>
+      </c>
+      <c r="H7" s="2">
+        <v>6.1227782682287298E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="4">
+        <v>2.6643309827907202E-5</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1.8518907591262999E-4</v>
+      </c>
+      <c r="D8" s="2">
+        <v>7.0614950545872099E-4</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1.06266119680163E-3</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1.37875392780048E-3</v>
+      </c>
+      <c r="G8" s="2">
+        <v>4.2150475087368903E-4</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1.2130797571666401E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1.6429177389539901E-5</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1.6588919734862099E-4</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.3018278175959601E-5</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2.6798884851478999E-4</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1.7640555467788501E-4</v>
+      </c>
+      <c r="G9" s="4">
+        <v>2.8116837239697401E-5</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1.38237921455304E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>